--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject50.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject50.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -161,7 +161,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1" s="0">
         <v>0</v>
@@ -173,13 +173,13 @@
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>0</v>
+        <v>0.64242144860606243</v>
       </c>
       <c r="Q1" s="0">
         <v>0</v>
       </c>
       <c r="R1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1" s="0">
         <v>0</v>
@@ -200,13 +200,13 @@
         <v>0</v>
       </c>
       <c r="Y1" s="0">
-        <v>0</v>
+        <v>0.67796228878860332</v>
       </c>
       <c r="Z1" s="0">
         <v>0</v>
       </c>
       <c r="AA1" s="0">
-        <v>0</v>
+        <v>0.94854190486094303</v>
       </c>
       <c r="AB1" s="0">
         <v>0</v>
@@ -230,7 +230,7 @@
         <v>0</v>
       </c>
       <c r="AI1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ1" s="0">
         <v>0</v>
@@ -242,7 +242,7 @@
         <v>0</v>
       </c>
       <c r="AM1" s="0">
-        <v>0</v>
+        <v>0.60107452918138438</v>
       </c>
       <c r="AN1" s="0">
         <v>0</v>
@@ -257,7 +257,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.78950625827217447</v>
       </c>
     </row>
     <row r="2">
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -373,10 +373,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
+        <v>0.56085768895731425</v>
       </c>
       <c r="O2" s="0">
-        <v>0</v>
+        <v>0.74824014439410069</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="0">
-        <v>0</v>
+        <v>0.65276158297430653</v>
       </c>
       <c r="AD2" s="0">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="BI2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -552,13 +552,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>0</v>
+        <v>0.86226143096371755</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>0</v>
+        <v>0.76776333610963898</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="0">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="AG3" s="0">
-        <v>0</v>
+        <v>0.89165703096333981</v>
       </c>
       <c r="AH3" s="0">
-        <v>0</v>
+        <v>0.52656089304675235</v>
       </c>
       <c r="AI3" s="0">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="0">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>0</v>
+        <v>0.55265500761722086</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="0">
-        <v>0</v>
+        <v>0.89268189275821297</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>1</v>
+        <v>0.85463236553537891</v>
       </c>
       <c r="M4" s="0">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>0</v>
+        <v>0.59797766194951907</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>0</v>
+        <v>0.96878270892933782</v>
       </c>
       <c r="V4" s="0">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="0">
-        <v>0</v>
+        <v>0.55938869930474988</v>
       </c>
       <c r="S5" s="0">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
@@ -1078,16 +1078,16 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>0</v>
+        <v>0.68243773445768685</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
       </c>
       <c r="AT5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="0">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="BF5" s="0">
-        <v>0</v>
+        <v>0.7716565369164381</v>
       </c>
       <c r="BG5" s="0">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="BM5" s="0">
-        <v>0</v>
+        <v>0.69474228766881674</v>
       </c>
       <c r="BN5" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="0">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>0</v>
+        <v>0.9711117831239845</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="0">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="0">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="0">
-        <v>0</v>
+        <v>0.76026722134106661</v>
       </c>
       <c r="AW6" s="0">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="0">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0</v>
+        <v>0.92478789733156308</v>
       </c>
       <c r="D7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="0">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="0">
-        <v>0</v>
+        <v>0.54481932575348391</v>
       </c>
       <c r="AI7" s="0">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="0">
-        <v>0</v>
+        <v>0.50892328040773216</v>
       </c>
       <c r="BL7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.96693991289172332</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="0">
-        <v>0</v>
+        <v>0.54390147538179323</v>
       </c>
       <c r="Y8" s="0">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="0">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>0</v>
+        <v>0.7131658148597827</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.83618734579241982</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="0">
-        <v>0</v>
+        <v>0.53693168394708812</v>
       </c>
       <c r="Z9" s="0">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="0">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="0">
-        <v>0</v>
+        <v>0.74572232141996952</v>
       </c>
       <c r="AK9" s="0">
         <v>0</v>
@@ -1893,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="AN9" s="0">
-        <v>0</v>
+        <v>0.77267634474107116</v>
       </c>
       <c r="AO9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="0">
         <v>0</v>
@@ -1908,13 +1908,13 @@
         <v>0</v>
       </c>
       <c r="AS9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="0">
         <v>0</v>
       </c>
       <c r="AU9" s="0">
-        <v>0</v>
+        <v>0.64922178369938055</v>
       </c>
       <c r="AV9" s="0">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
       </c>
       <c r="BN9" s="0">
-        <v>0</v>
+        <v>0.67041395861895203</v>
       </c>
       <c r="BO9" s="0">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>0</v>
+        <v>0.64858988038596699</v>
       </c>
       <c r="E10" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.85588027677974354</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2027,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="0">
-        <v>0</v>
+        <v>0.97924161697505552</v>
       </c>
       <c r="Q10" s="0">
         <v>0</v>
       </c>
       <c r="R10" s="0">
-        <v>0</v>
+        <v>0.86915420854519088</v>
       </c>
       <c r="S10" s="0">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="0">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.72545019181360515</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="0">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>0</v>
+        <v>0.61469346454844498</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="AV11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="0">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="BN11" s="0">
-        <v>0</v>
+        <v>0.87878364683661303</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>1</v>
+        <v>0.53894476326234653</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="0">
-        <v>0</v>
+        <v>0.70896915320524001</v>
       </c>
       <c r="Q12" s="0">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="0">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="0">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="0">
-        <v>0</v>
+        <v>0.99739577760881193</v>
       </c>
       <c r="AJ12" s="0">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="0">
-        <v>0</v>
+        <v>0.75556689176229308</v>
       </c>
       <c r="AT12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="BK12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="0">
-        <v>0</v>
+        <v>0.61686197574368296</v>
       </c>
       <c r="BM12" s="0">
         <v>0</v>
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.6290763741276354</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="0">
-        <v>0</v>
+        <v>0.88392469614728042</v>
       </c>
       <c r="W13" s="0">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="0">
-        <v>0</v>
+        <v>0.93249724472509998</v>
       </c>
       <c r="AD13" s="0">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="0">
-        <v>0</v>
+        <v>0.8253823785867388</v>
       </c>
       <c r="AR13" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0</v>
+        <v>0.70197149487978816</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="AY13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="0">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="BC13" s="0">
-        <v>0</v>
+        <v>0.96877647408799472</v>
       </c>
       <c r="BD13" s="0">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
+        <v>0.83972540022420783</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.67292709483262736</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>0</v>
+        <v>0.57591736424098472</v>
       </c>
       <c r="Z14" s="0">
         <v>0</v>
@@ -2887,13 +2887,13 @@
         <v>0</v>
       </c>
       <c r="AB14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="0">
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>0</v>
+        <v>0.67514617081048367</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AW14" s="0">
-        <v>0</v>
+        <v>0.91154621310926631</v>
       </c>
       <c r="AX14" s="0">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="BE14" s="0">
-        <v>0</v>
+        <v>0.76059711441619227</v>
       </c>
       <c r="BF14" s="0">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="0">
-        <v>0</v>
+        <v>0.71997984268407311</v>
       </c>
       <c r="BJ14" s="0">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="BL14" s="0">
-        <v>0</v>
+        <v>0.81941184073499662</v>
       </c>
       <c r="BM14" s="0">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="0">
-        <v>0</v>
+        <v>0.80564809957498151</v>
       </c>
       <c r="C15" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>0</v>
+        <v>0.67083419333602068</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="0">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0</v>
+        <v>0.57502521665987061</v>
       </c>
       <c r="AK15" s="0">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>0</v>
+        <v>0.69182009554152879</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0</v>
+        <v>0.74478269137660513</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
@@ -3239,28 +3239,28 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>0</v>
+        <v>0.86807892117564966</v>
       </c>
       <c r="K16" s="0">
         <v>0</v>
       </c>
       <c r="L16" s="0">
-        <v>0</v>
+        <v>0.89259545979070309</v>
       </c>
       <c r="M16" s="0">
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.63011443265451383</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
       </c>
       <c r="T16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="0">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="BA16" s="0">
-        <v>0</v>
+        <v>0.71396101663171385</v>
       </c>
       <c r="BB16" s="0">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="0">
-        <v>0</v>
+        <v>0.5310488173927026</v>
       </c>
       <c r="BP16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>0</v>
+        <v>0.9022232676776385</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="0">
-        <v>0</v>
+        <v>0.94802954527822259</v>
       </c>
       <c r="AP17" s="0">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="0">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="AX17" s="0">
-        <v>0</v>
+        <v>0.98290722398247476</v>
       </c>
       <c r="AY17" s="0">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="BG17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH17" s="0">
         <v>0</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="BO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17" s="0">
         <v>0</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="0">
-        <v>0</v>
+        <v>0.85447599597542889</v>
       </c>
       <c r="F18" s="0">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>0</v>
+        <v>0.64590452023091816</v>
       </c>
       <c r="K18" s="0">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.7337316873449331</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="0">
-        <v>0</v>
+        <v>0.94787750345834887</v>
       </c>
       <c r="BE18" s="0">
         <v>0</v>
@@ -3813,13 +3813,13 @@
         <v>0</v>
       </c>
       <c r="BJ18" s="0">
-        <v>0</v>
+        <v>0.8092378187876681</v>
       </c>
       <c r="BK18" s="0">
         <v>0</v>
       </c>
       <c r="BL18" s="0">
-        <v>0</v>
+        <v>0.90897728747908091</v>
       </c>
       <c r="BM18" s="0">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="BP18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>0</v>
+        <v>0.93920361829316068</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>0.66788274186792551</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.879960922166515</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="0">
-        <v>0</v>
+        <v>0.89615717055491495</v>
       </c>
       <c r="AC19" s="0">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>0</v>
+        <v>0.53456066278693704</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="0">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="BM19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO19" s="0">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.59821944839546481</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="0">
         <v>0</v>
@@ -4138,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="AG20" s="0">
-        <v>0</v>
+        <v>0.71708980888129514</v>
       </c>
       <c r="AH20" s="0">
         <v>0</v>
       </c>
       <c r="AI20" s="0">
-        <v>0</v>
+        <v>0.69779672445025087</v>
       </c>
       <c r="AJ20" s="0">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BH20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="0">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>0</v>
+        <v>0.84696450563218506</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.6764564124558341</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="0">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="AM21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="0">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="0">
-        <v>0</v>
+        <v>0.97796992183375098</v>
       </c>
       <c r="AQ21" s="0">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="BC21" s="0">
-        <v>0</v>
+        <v>0.94203081603756655</v>
       </c>
       <c r="BD21" s="0">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="BO21" s="0">
-        <v>0</v>
+        <v>0.64488020067498386</v>
       </c>
       <c r="BP21" s="0">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="0">
-        <v>0</v>
+        <v>0.60897770617269109</v>
       </c>
       <c r="N22" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.89126252765836378</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4598,16 +4598,16 @@
         <v>0</v>
       </c>
       <c r="AW22" s="0">
-        <v>0</v>
+        <v>0.96408305405429551</v>
       </c>
       <c r="AX22" s="0">
         <v>0</v>
       </c>
       <c r="AY22" s="0">
-        <v>1</v>
+        <v>0.88265775758508125</v>
       </c>
       <c r="AZ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="0">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="BC22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>0</v>
+        <v>0.73444831834121915</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.59251444002270359</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="0">
-        <v>0</v>
+        <v>0.58296260786593945</v>
       </c>
       <c r="AR23" s="0">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="0">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="0">
-        <v>0</v>
+        <v>0.59016676190145689</v>
       </c>
       <c r="I24" s="0">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>0</v>
+        <v>0.95089129900357849</v>
       </c>
       <c r="R24" s="0">
         <v>0</v>
@@ -4932,16 +4932,16 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.67827910063526509</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0</v>
+        <v>0.73305174555835562</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5007,13 +5007,13 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0</v>
+        <v>0.89419411444599528</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
       </c>
       <c r="AX24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="0">
         <v>0</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0</v>
+        <v>0.86871639297336856</v>
       </c>
       <c r="B25" s="0">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="0">
-        <v>0</v>
+        <v>0.94441532911423742</v>
       </c>
       <c r="J25" s="0">
         <v>0</v>
@@ -5105,13 +5105,13 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="0">
         <v>0</v>
       </c>
       <c r="N25" s="0">
-        <v>0</v>
+        <v>0.62231787816457684</v>
       </c>
       <c r="O25" s="0">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="0">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5162,13 +5162,13 @@
         <v>0</v>
       </c>
       <c r="AE25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="0">
         <v>0</v>
       </c>
       <c r="AG25" s="0">
-        <v>0</v>
+        <v>0.71526955429305106</v>
       </c>
       <c r="AH25" s="0">
         <v>0</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="AL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="0">
         <v>0</v>
@@ -5225,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="0">
-        <v>0</v>
+        <v>0.94965301352031584</v>
       </c>
       <c r="BA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB25" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0</v>
+        <v>0.86313603708039821</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="0">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="0">
-        <v>0</v>
+        <v>0.55305686364702455</v>
       </c>
       <c r="AV26" s="0">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="0">
-        <v>0</v>
+        <v>0.54789965916464944</v>
       </c>
       <c r="BK26" s="0">
         <v>0</v>
@@ -5473,18 +5473,18 @@
         <v>0</v>
       </c>
       <c r="BN26" s="0">
-        <v>0</v>
+        <v>0.99034947583797361</v>
       </c>
       <c r="BO26" s="0">
         <v>0</v>
       </c>
       <c r="BP26" s="0">
-        <v>0</v>
+        <v>0.60091647697624473</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0</v>
+        <v>0.91117398693514851</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>0</v>
+        <v>0.94781949288991563</v>
       </c>
       <c r="AT27" s="0">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="BF27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG27" s="0">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="BL27" s="0">
-        <v>0</v>
+        <v>0.58748779011552577</v>
       </c>
       <c r="BM27" s="0">
         <v>0</v>
@@ -5702,13 +5702,13 @@
         <v>0</v>
       </c>
       <c r="E28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="0">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0">
-        <v>0</v>
+        <v>0.86690663422695979</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.89149092779722683</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="0">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="0">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="BL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM28" s="0">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="0">
-        <v>0</v>
+        <v>0.78951482443259291</v>
       </c>
       <c r="C29" s="0">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="0">
-        <v>0</v>
+        <v>0.94874498848181821</v>
       </c>
       <c r="N29" s="0">
         <v>0</v>
@@ -5977,13 +5977,13 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.72001261722970988</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.99765280108173826</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="AS29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="0">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="0">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0</v>
+        <v>0.58936974391296881</v>
       </c>
       <c r="O30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.80940166872310426</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="0">
-        <v>0</v>
+        <v>0.78952489855868468</v>
       </c>
       <c r="AI30" s="0">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="BB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC30" s="0">
         <v>0</v>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="0">
-        <v>0</v>
+        <v>0.79034127011181909</v>
       </c>
       <c r="T31" s="0">
         <v>0</v>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="0">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>0</v>
+        <v>0.68155784114256246</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>0</v>
+        <v>0.56318303383166235</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="BL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM31" s="0">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="BO31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP31" s="0">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.75393654293473533</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="AU32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="0">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="BG32" s="0">
-        <v>0</v>
+        <v>0.86524964250888936</v>
       </c>
       <c r="BH32" s="0">
         <v>0</v>
@@ -6706,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="BM32" s="0">
-        <v>0</v>
+        <v>0.8530149958525699</v>
       </c>
       <c r="BN32" s="0">
-        <v>0</v>
+        <v>0.91244602014096943</v>
       </c>
       <c r="BO32" s="0">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="0">
-        <v>0</v>
+        <v>0.93085247825338302</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="0">
         <v>0</v>
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>0</v>
+        <v>0.55094249966755315</v>
       </c>
       <c r="U33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="0">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="0">
-        <v>0</v>
+        <v>0.70293520070667637</v>
       </c>
       <c r="Z33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.70039618574615881</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6825,13 +6825,13 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="0">
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>0</v>
+        <v>0.92834807067772496</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="BF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG33" s="0">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="BN33" s="0">
-        <v>0</v>
+        <v>0.86524914596669744</v>
       </c>
       <c r="BO33" s="0">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="0">
-        <v>0</v>
+        <v>0.92861389257124649</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="0">
-        <v>0</v>
+        <v>0.77459696364303432</v>
       </c>
       <c r="H34" s="0">
         <v>0</v>
@@ -7013,13 +7013,13 @@
         <v>0</v>
       </c>
       <c r="AD34" s="0">
-        <v>0</v>
+        <v>0.86464154037652008</v>
       </c>
       <c r="AE34" s="0">
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7028,10 +7028,10 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="AR34" s="0">
-        <v>0</v>
+        <v>0.64831004417638194</v>
       </c>
       <c r="AS34" s="0">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="BH34" s="0">
-        <v>0</v>
+        <v>0.51107488731429973</v>
       </c>
       <c r="BI34" s="0">
         <v>0</v>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="0">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>0</v>
+        <v>0.68183689515281987</v>
       </c>
       <c r="M35" s="0">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>0</v>
+        <v>0.59255533902736501</v>
       </c>
       <c r="U35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="0">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="BH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI35" s="0">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="0">
-        <v>0</v>
+        <v>0.85089074256132369</v>
       </c>
       <c r="J36" s="0">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="0">
-        <v>0</v>
+        <v>0.81039377663609791</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
@@ -7434,10 +7434,10 @@
         <v>0</v>
       </c>
       <c r="AG36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="BF36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG36" s="0">
         <v>0</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="BJ36" s="0">
-        <v>0</v>
+        <v>0.51187607941020774</v>
       </c>
       <c r="BK36" s="0">
         <v>0</v>
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>0</v>
+        <v>0.92238955625039498</v>
       </c>
       <c r="G37" s="0">
         <v>0</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="0">
         <v>0</v>
@@ -7658,10 +7658,10 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.79120659685436057</v>
       </c>
       <c r="AN37" s="0">
-        <v>0</v>
+        <v>0.73123597848978583</v>
       </c>
       <c r="AO37" s="0">
         <v>0</v>
@@ -7679,10 +7679,10 @@
         <v>0</v>
       </c>
       <c r="AT37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
@@ -7700,13 +7700,13 @@
         <v>0</v>
       </c>
       <c r="BA37" s="0">
-        <v>0</v>
+        <v>0.79264741066807887</v>
       </c>
       <c r="BB37" s="0">
         <v>0</v>
       </c>
       <c r="BC37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD37" s="0">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>0</v>
+        <v>0.8209705082745884</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7864,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.66522598976421254</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0</v>
+        <v>0.50699342673544945</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="0">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="0">
-        <v>0</v>
+        <v>0.83991436895465654</v>
       </c>
       <c r="AF39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.63598694120048771</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.56058296459381629</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.84143974548189915</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.53193569053986955</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>0</v>
+        <v>0.56948968528249999</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8270,13 +8270,13 @@
         <v>0</v>
       </c>
       <c r="AK40" s="0">
-        <v>0</v>
+        <v>0.87574537418556075</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.87366074151703477</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,13 +8285,13 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
       </c>
       <c r="AR40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="0">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>1</v>
+        <v>0.53172441693668571</v>
       </c>
       <c r="AY40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="0">
         <v>0</v>
@@ -8392,7 +8392,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="0">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0</v>
+        <v>0.93267940687482076</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.81509672068914896</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.51627396374410417</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AW41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="0">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="BC41" s="0">
-        <v>0</v>
+        <v>0.69667285674512436</v>
       </c>
       <c r="BD41" s="0">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="BG41" s="0">
-        <v>0</v>
+        <v>0.67813030788124495</v>
       </c>
       <c r="BH41" s="0">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="0">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>0</v>
+        <v>0.74215745345751039</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="AB42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="BE42" s="0">
-        <v>0</v>
+        <v>0.90839155073015121</v>
       </c>
       <c r="BF42" s="0">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="0">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="0">
-        <v>0</v>
+        <v>0.99395590000027312</v>
       </c>
       <c r="N43" s="0">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="0">
-        <v>0</v>
+        <v>0.57635296172183259</v>
       </c>
       <c r="X43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.88632162217565302</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.89609897615195111</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>0</v>
+        <v>0.76545512560411211</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="AH44" s="0">
-        <v>0</v>
+        <v>0.93171542695968723</v>
       </c>
       <c r="AI44" s="0">
         <v>0</v>
@@ -9103,13 +9103,13 @@
         <v>0</v>
       </c>
       <c r="AN44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="0">
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.74064878067758122</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="BH44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI44" s="0">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="0">
-        <v>0</v>
+        <v>0.91836400906875904</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="0">
         <v>0</v>
@@ -9216,16 +9216,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="0">
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>0</v>
+        <v>0.97239092022269968</v>
       </c>
       <c r="L45" s="0">
-        <v>0</v>
+        <v>0.82706457664623156</v>
       </c>
       <c r="M45" s="0">
         <v>0</v>
@@ -9270,13 +9270,13 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>0</v>
+        <v>0.89271116244569004</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
       </c>
       <c r="AC45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.91702492581376105</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>0</v>
+        <v>0.95203196312068084</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="0">
         <v>0</v>
@@ -9434,13 +9434,13 @@
         <v>0</v>
       </c>
       <c r="M46" s="0">
-        <v>0</v>
+        <v>0.81804034740638376</v>
       </c>
       <c r="N46" s="0">
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>0</v>
+        <v>0.84256304719119224</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.60849376645134667</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9536,13 +9536,13 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
       </c>
       <c r="AW46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="0">
         <v>0</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="BA46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB46" s="0">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="BD46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE46" s="0">
         <v>0</v>
@@ -9628,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="0">
-        <v>0</v>
+        <v>0.79545033863998316</v>
       </c>
       <c r="J47" s="0">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="0">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>0</v>
+        <v>0.83147878010870924</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9697,13 +9697,13 @@
         <v>0</v>
       </c>
       <c r="AF47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="0">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>0</v>
+        <v>0.67200273967823221</v>
       </c>
       <c r="BM47" s="0">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>0</v>
+        <v>0.50145139565662133</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="0">
         <v>0</v>
@@ -9876,10 +9876,10 @@
         <v>0</v>
       </c>
       <c r="W48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>0</v>
+        <v>0.98363131115038716</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>0</v>
+        <v>0.69924861263180627</v>
       </c>
       <c r="BB48" s="0">
         <v>0</v>
@@ -9978,10 +9978,10 @@
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>0</v>
+        <v>0.63305146664581669</v>
       </c>
       <c r="BF48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -10005,13 +10005,13 @@
         <v>0</v>
       </c>
       <c r="BN48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO48" s="0">
         <v>0</v>
       </c>
       <c r="BP48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>0</v>
+        <v>0.76560686712939208</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="0">
-        <v>0</v>
+        <v>0.95624615385261591</v>
       </c>
       <c r="W49" s="0">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="AO49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
@@ -10151,10 +10151,10 @@
         <v>0</v>
       </c>
       <c r="AT49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>0</v>
+        <v>0.96317594096113712</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0</v>
+        <v>0.83792305151576274</v>
       </c>
       <c r="R50" s="0">
         <v>0</v>
@@ -10291,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="0">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AN50" s="0">
-        <v>1</v>
+        <v>0.66052038420496717</v>
       </c>
       <c r="AO50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.65479248438486837</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>0</v>
+        <v>0.8316158004419133</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="BN50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="0">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="0">
-        <v>1</v>
+        <v>0.83146918543307458</v>
       </c>
       <c r="W51" s="0">
         <v>0</v>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO51" s="0">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="BB51" s="0">
-        <v>0</v>
+        <v>0.81089039633001114</v>
       </c>
       <c r="BC51" s="0">
         <v>0</v>
@@ -10596,19 +10596,19 @@
         <v>0</v>
       </c>
       <c r="BE51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
       </c>
       <c r="BG51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH51" s="0">
-        <v>0</v>
+        <v>0.84831732153390838</v>
       </c>
       <c r="BI51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="0">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52" s="0">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>0</v>
+        <v>0.9787762324105671</v>
       </c>
       <c r="Z52" s="0">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="AI52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.83370413866631898</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.5989718997847282</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>0</v>
+        <v>0.97796523741885055</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>0</v>
+        <v>0.69630765964914643</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="0">
         <v>0</v>
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="0">
-        <v>0</v>
+        <v>0.99801946338934533</v>
       </c>
       <c r="AL53" s="0">
         <v>0</v>
@@ -10975,13 +10975,13 @@
         <v>0</v>
       </c>
       <c r="AT53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="0">
         <v>0</v>
       </c>
       <c r="AV53" s="0">
-        <v>0</v>
+        <v>0.95839740321529743</v>
       </c>
       <c r="AW53" s="0">
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.7468601294049626</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11017,13 +11017,13 @@
         <v>0</v>
       </c>
       <c r="BH53" s="0">
-        <v>0</v>
+        <v>0.74369824769681436</v>
       </c>
       <c r="BI53" s="0">
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11127,13 +11127,13 @@
         <v>0</v>
       </c>
       <c r="AB54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="0">
         <v>0</v>
       </c>
       <c r="AD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11196,7 +11196,7 @@
         <v>0</v>
       </c>
       <c r="AY54" s="0">
-        <v>0</v>
+        <v>0.86078421507079039</v>
       </c>
       <c r="AZ54" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.88510903671231866</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>0</v>
+        <v>0.57551044454988687</v>
       </c>
       <c r="N55" s="0">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="U55" s="0">
-        <v>0</v>
+        <v>0.65321100097542018</v>
       </c>
       <c r="V55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55" s="0">
         <v>0</v>
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="0">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="AO55" s="0">
-        <v>0</v>
+        <v>0.81453071117479525</v>
       </c>
       <c r="AP55" s="0">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>0</v>
+        <v>0.91070683473883496</v>
       </c>
       <c r="AY55" s="0">
         <v>0</v>
@@ -11411,13 +11411,13 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.78049858006081974</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.5201891751326031</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11447,13 +11447,13 @@
         <v>0</v>
       </c>
       <c r="BN55" s="0">
-        <v>0</v>
+        <v>0.94428024478112293</v>
       </c>
       <c r="BO55" s="0">
         <v>0</v>
       </c>
       <c r="BP55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="0">
-        <v>0</v>
+        <v>0.5481977667193203</v>
       </c>
       <c r="S56" s="0">
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="AT56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.76079642726255525</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="0">
-        <v>0</v>
+        <v>0.71291643412569561</v>
       </c>
       <c r="O57" s="0">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="0">
-        <v>0</v>
+        <v>0.85071917743350567</v>
       </c>
       <c r="AQ57" s="0">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AV57" s="0">
-        <v>0</v>
+        <v>0.68336967303751339</v>
       </c>
       <c r="AW57" s="0">
         <v>0</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="AY57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="0">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11856,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="BM57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57" s="0">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="BP57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="0">
-        <v>0</v>
+        <v>0.51881890027477984</v>
       </c>
       <c r="F58" s="0">
         <v>0</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="AA58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="0">
         <v>0</v>
@@ -11960,13 +11960,13 @@
         <v>0</v>
       </c>
       <c r="AE58" s="0">
-        <v>0</v>
+        <v>0.63993461310252553</v>
       </c>
       <c r="AF58" s="0">
         <v>0</v>
       </c>
       <c r="AG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="0">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="0">
         <v>0</v>
@@ -12035,10 +12035,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="0">
         <v>0</v>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="AF59" s="0">
-        <v>0</v>
+        <v>0.72040264010255495</v>
       </c>
       <c r="AG59" s="0">
         <v>0</v>
@@ -12196,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="AO59" s="0">
-        <v>0</v>
+        <v>0.78479158152399897</v>
       </c>
       <c r="AP59" s="0">
         <v>0</v>
@@ -12226,10 +12226,10 @@
         <v>0</v>
       </c>
       <c r="AY59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>0</v>
+        <v>0.87752014701648728</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" s="0">
         <v>0</v>
@@ -12381,10 +12381,10 @@
         <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>0</v>
+        <v>0.58792592146814227</v>
       </c>
       <c r="AI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="0">
         <v>0</v>
@@ -12411,10 +12411,10 @@
         <v>0</v>
       </c>
       <c r="AR60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0</v>
+        <v>0.77328689499257397</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12432,13 +12432,13 @@
         <v>0</v>
       </c>
       <c r="AY60" s="0">
-        <v>0</v>
+        <v>0.60533641591044529</v>
       </c>
       <c r="AZ60" s="0">
         <v>0</v>
       </c>
       <c r="BA60" s="0">
-        <v>0</v>
+        <v>0.94068914167985451</v>
       </c>
       <c r="BB60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" s="0">
         <v>0</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="0">
-        <v>0</v>
+        <v>0.86813672639724104</v>
       </c>
       <c r="I61" s="0">
         <v>0</v>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="0">
-        <v>0</v>
+        <v>0.93079282164802091</v>
       </c>
       <c r="O61" s="0">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="0">
         <v>0</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="BP61" s="0">
-        <v>0</v>
+        <v>0.96944674764345229</v>
       </c>
     </row>
     <row r="62">
@@ -12721,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="0">
         <v>0</v>
@@ -12739,13 +12739,13 @@
         <v>0</v>
       </c>
       <c r="P62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
       </c>
       <c r="R62" s="0">
-        <v>0</v>
+        <v>0.62612719496488878</v>
       </c>
       <c r="S62" s="0">
         <v>0</v>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="0">
-        <v>0</v>
+        <v>0.97610825430369474</v>
       </c>
       <c r="AA62" s="0">
         <v>0</v>
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="AJ62" s="0">
-        <v>0</v>
+        <v>0.6843950199938289</v>
       </c>
       <c r="AK62" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.94775297321220964</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.71496244367431716</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -12918,7 +12918,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="0">
-        <v>0</v>
+        <v>0.85729560817937234</v>
       </c>
       <c r="H63" s="0">
         <v>0</v>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="0">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>0</v>
+        <v>0.8686519616884697</v>
       </c>
       <c r="AX63" s="0">
         <v>0</v>
@@ -13080,16 +13080,16 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.68126423011850501</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.52003108984719892</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
@@ -13139,13 +13139,13 @@
         <v>0</v>
       </c>
       <c r="L64" s="0">
-        <v>0</v>
+        <v>0.77001372166093285</v>
       </c>
       <c r="M64" s="0">
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>0</v>
+        <v>0.57872943540655386</v>
       </c>
       <c r="O64" s="0">
         <v>0</v>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="0">
-        <v>0</v>
+        <v>0.56584740772193842</v>
       </c>
       <c r="S64" s="0">
         <v>0</v>
@@ -13184,10 +13184,10 @@
         <v>0</v>
       </c>
       <c r="AA64" s="0">
-        <v>0</v>
+        <v>0.76796261143366307</v>
       </c>
       <c r="AB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="0">
         <v>0</v>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="AE64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>0</v>
+        <v>0.62813908476415992</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13289,10 +13289,10 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.72756893219003027</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.8804591151920188</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13324,7 +13324,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="0">
-        <v>0</v>
+        <v>0.88643104882169454</v>
       </c>
       <c r="F65" s="0">
         <v>0</v>
@@ -13366,7 +13366,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" s="0">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="0">
-        <v>0</v>
+        <v>0.85342062184121881</v>
       </c>
       <c r="AG65" s="0">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="BE65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.96299015604760996</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="0">
         <v>0</v>
@@ -13542,13 +13542,13 @@
         <v>0</v>
       </c>
       <c r="I66" s="0">
-        <v>0</v>
+        <v>0.74613065852789573</v>
       </c>
       <c r="J66" s="0">
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>0</v>
+        <v>0.87618253615045361</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13572,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" s="0">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="0">
-        <v>0</v>
+        <v>0.63786039082364865</v>
       </c>
       <c r="AA66" s="0">
         <v>0</v>
@@ -13611,10 +13611,10 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>0</v>
+        <v>0.60564699158967095</v>
       </c>
       <c r="AG66" s="0">
-        <v>0</v>
+        <v>0.50273202916358972</v>
       </c>
       <c r="AH66" s="0">
         <v>0</v>
@@ -13659,13 +13659,13 @@
         <v>0</v>
       </c>
       <c r="AV66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="0">
         <v>0</v>
       </c>
       <c r="AX66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="0">
         <v>0</v>
@@ -13680,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="BC66" s="0">
-        <v>0</v>
+        <v>0.50930347745218507</v>
       </c>
       <c r="BD66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.57094203184905656</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13769,10 +13769,10 @@
         <v>0</v>
       </c>
       <c r="P67" s="0">
-        <v>0</v>
+        <v>0.59993545979836627</v>
       </c>
       <c r="Q67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="0">
         <v>0</v>
@@ -13784,7 +13784,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="0">
-        <v>0</v>
+        <v>0.73882635615628911</v>
       </c>
       <c r="V67" s="0">
         <v>0</v>
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF67" s="0">
         <v>0</v>
@@ -13925,12 +13925,12 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.71433439333046078</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
       <c r="R68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" s="0">
         <v>0</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="0">
-        <v>0</v>
+        <v>0.63281492559959407</v>
       </c>
       <c r="AA68" s="0">
         <v>0</v>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="AV68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="0">
         <v>0</v>
@@ -14092,13 +14092,13 @@
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
       </c>
       <c r="BE68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF68" s="0">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="BI68" s="0">
-        <v>0</v>
+        <v>0.79762154974064026</v>
       </c>
       <c r="BJ68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject50.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject50.xlsx
@@ -173,7 +173,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="0">
-        <v>0.64242144860606243</v>
+        <v>0.74478269137660513</v>
       </c>
       <c r="Q1" s="0">
         <v>0</v>
@@ -200,7 +200,7 @@
         <v>0</v>
       </c>
       <c r="Y1" s="0">
-        <v>0.67796228878860332</v>
+        <v>0.86871639297336856</v>
       </c>
       <c r="Z1" s="0">
         <v>0</v>
@@ -373,10 +373,10 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0.56085768895731425</v>
+        <v>0.83972540022420783</v>
       </c>
       <c r="O2" s="0">
-        <v>0.74824014439410069</v>
+        <v>0.80564809957498151</v>
       </c>
       <c r="P2" s="0">
         <v>0</v>
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="0">
-        <v>0.65276158297430653</v>
+        <v>0.78951482443259291</v>
       </c>
       <c r="AD2" s="0">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>0.86226143096371755</v>
+        <v>0.92478789733156308</v>
       </c>
       <c r="H3" s="0">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>0.76776333610963898</v>
+        <v>0.93920361829316068</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.89165703096333981</v>
+        <v>0.93085247825338302</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.52656089304675235</v>
+        <v>0.92861389257124649</v>
       </c>
       <c r="AI3" s="0">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>0.55265500761722086</v>
+        <v>0.91836400906875904</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>0.59797766194951907</v>
+        <v>0.66788274186792551</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="0">
-        <v>0.55938869930474988</v>
+        <v>0.85447599597542889</v>
       </c>
       <c r="S5" s="0">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>0.68243773445768685</v>
+        <v>0.76545512560411211</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="BM5" s="0">
-        <v>0.69474228766881674</v>
+        <v>0.88643104882169454</v>
       </c>
       <c r="BN5" s="0">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="0">
-        <v>0.54481932575348391</v>
+        <v>0.77459696364303432</v>
       </c>
       <c r="AI7" s="0">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="BK7" s="0">
-        <v>0.50892328040773216</v>
+        <v>0.85729560817937234</v>
       </c>
       <c r="BL7" s="0">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="0">
-        <v>0.54390147538179323</v>
+        <v>0.59016676190145689</v>
       </c>
       <c r="Y8" s="0">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>0.7131658148597827</v>
+        <v>0.86813672639724104</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="0">
-        <v>0.53693168394708812</v>
+        <v>0.94441532911423742</v>
       </c>
       <c r="Z9" s="0">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="0">
-        <v>0.74572232141996952</v>
+        <v>0.85089074256132369</v>
       </c>
       <c r="AK9" s="0">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="0">
-        <v>0.64922178369938055</v>
+        <v>0.79545033863998316</v>
       </c>
       <c r="AV9" s="0">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="0">
-        <v>0.67041395861895203</v>
+        <v>0.74613065852789573</v>
       </c>
       <c r="BO9" s="0">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="0">
-        <v>0.64858988038596699</v>
+        <v>0.89268189275821297</v>
       </c>
       <c r="E10" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.85588027677974354</v>
+        <v>0.96693991289172332</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.72545019181360515</v>
+        <v>0.83618734579241982</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>0.61469346454844498</v>
+        <v>0.97239092022269968</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>0.53894476326234653</v>
+        <v>0.85463236553537891</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="0">
-        <v>0.70896915320524001</v>
+        <v>0.89259545979070309</v>
       </c>
       <c r="Q12" s="0">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="0">
-        <v>0.75556689176229308</v>
+        <v>0.82706457664623156</v>
       </c>
       <c r="AT12" s="0">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="BL12" s="0">
-        <v>0.61686197574368296</v>
+        <v>0.77001372166093285</v>
       </c>
       <c r="BM12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.6290763741276354</v>
+        <v>0.67292709483262736</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="0">
-        <v>0.93249724472509998</v>
+        <v>0.94874498848181821</v>
       </c>
       <c r="AD13" s="0">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="0">
-        <v>0.8253823785867388</v>
+        <v>0.99395590000027312</v>
       </c>
       <c r="AR13" s="0">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="0">
-        <v>0.70197149487978816</v>
+        <v>0.81804034740638376</v>
       </c>
       <c r="AU13" s="0">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="0">
-        <v>0.57591736424098472</v>
+        <v>0.62231787816457684</v>
       </c>
       <c r="Z14" s="0">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="0">
-        <v>0.71997984268407311</v>
+        <v>0.93079282164802091</v>
       </c>
       <c r="BJ14" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>0.67083419333602068</v>
+        <v>0.73444831834121915</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0.57502521665987061</v>
+        <v>0.81039377663609791</v>
       </c>
       <c r="AK15" s="0">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>0.69182009554152879</v>
+        <v>0.84256304719119224</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="0">
-        <v>0.86807892117564966</v>
+        <v>0.97924161697505552</v>
       </c>
       <c r="K16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0.63011443265451383</v>
+        <v>0.7337316873449331</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="0">
-        <v>0.5310488173927026</v>
+        <v>0.59993545979836627</v>
       </c>
       <c r="BP16" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>0.9022232676776385</v>
+        <v>0.95089129900357849</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>0.64590452023091816</v>
+        <v>0.86915420854519088</v>
       </c>
       <c r="K18" s="0">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="0">
-        <v>0.53456066278693704</v>
+        <v>0.79034127011181909</v>
       </c>
       <c r="AF19" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.59821944839546481</v>
+        <v>0.89126252765836378</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="0">
-        <v>0.84696450563218506</v>
+        <v>0.96878270892933782</v>
       </c>
       <c r="E21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.6764564124558341</v>
+        <v>0.879960922166515</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="BO21" s="0">
-        <v>0.64488020067498386</v>
+        <v>0.73882635615628911</v>
       </c>
       <c r="BP21" s="0">
         <v>0</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="0">
-        <v>0.60897770617269109</v>
+        <v>0.88392469614728042</v>
       </c>
       <c r="N22" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.59251444002270359</v>
+        <v>0.67827910063526509</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.73305174555835562</v>
+        <v>0.86313603708039821</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0.89419411444599528</v>
+        <v>0.98363131115038716</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="0">
-        <v>0.94965301352031584</v>
+        <v>0.9787762324105671</v>
       </c>
       <c r="BA25" s="0">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="0">
-        <v>0.55305686364702455</v>
+        <v>0.83147878010870924</v>
       </c>
       <c r="AV26" s="0">
         <v>0</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="BJ26" s="0">
-        <v>0.54789965916464944</v>
+        <v>0.97610825430369474</v>
       </c>
       <c r="BK26" s="0">
         <v>0</v>
@@ -5479,12 +5479,12 @@
         <v>0</v>
       </c>
       <c r="BP26" s="0">
-        <v>0.60091647697624473</v>
+        <v>0.63281492559959407</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.91117398693514851</v>
+        <v>0.94854190486094303</v>
       </c>
       <c r="B27" s="0">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="BL27" s="0">
-        <v>0.58748779011552577</v>
+        <v>0.76796261143366307</v>
       </c>
       <c r="BM27" s="0">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0">
-        <v>0.86690663422695979</v>
+        <v>0.89615717055491495</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.72001261722970988</v>
+        <v>0.89149092779722683</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0.58936974391296881</v>
+        <v>0.67514617081048367</v>
       </c>
       <c r="O30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.80940166872310426</v>
+        <v>0.99765280108173826</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="0">
-        <v>0.78952489855868468</v>
+        <v>0.86464154037652008</v>
       </c>
       <c r="AI30" s="0">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>0.68155784114256246</v>
+        <v>0.83991436895465654</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>0.56318303383166235</v>
+        <v>0.63993461310252553</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="0">
-        <v>0.8530149958525699</v>
+        <v>0.85342062184121881</v>
       </c>
       <c r="BN32" s="0">
         <v>0.91244602014096943</v>
@@ -6777,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>0.55094249966755315</v>
+        <v>0.71708980888129514</v>
       </c>
       <c r="U33" s="0">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="0">
-        <v>0.70293520070667637</v>
+        <v>0.71526955429305106</v>
       </c>
       <c r="Z33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.70039618574615881</v>
+        <v>0.75393654293473533</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="AR34" s="0">
-        <v>0.64831004417638194</v>
+        <v>0.93171542695968723</v>
       </c>
       <c r="AS34" s="0">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="BH34" s="0">
-        <v>0.51107488731429973</v>
+        <v>0.58792592146814227</v>
       </c>
       <c r="BI34" s="0">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>0.68183689515281987</v>
+        <v>0.99739577760881193</v>
       </c>
       <c r="M35" s="0">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>0.59255533902736501</v>
+        <v>0.69779672445025087</v>
       </c>
       <c r="U35" s="0">
         <v>0</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="BJ36" s="0">
-        <v>0.51187607941020774</v>
+        <v>0.6843950199938289</v>
       </c>
       <c r="BK36" s="0">
         <v>0</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>0.92238955625039498</v>
+        <v>0.9711117831239845</v>
       </c>
       <c r="G37" s="0">
         <v>0</v>
@@ -7661,7 +7661,7 @@
         <v>0.79120659685436057</v>
       </c>
       <c r="AN37" s="0">
-        <v>0.73123597848978583</v>
+        <v>0.87574537418556075</v>
       </c>
       <c r="AO37" s="0">
         <v>0</v>
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="BA37" s="0">
-        <v>0.79264741066807887</v>
+        <v>0.99801946338934533</v>
       </c>
       <c r="BB37" s="0">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>0.8209705082745884</v>
+        <v>0.92834807067772496</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7956,7 +7956,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.50699342673544945</v>
+        <v>0.60107452918138438</v>
       </c>
       <c r="B39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.63598694120048771</v>
+        <v>0.79120659685436057</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.56058296459381629</v>
+        <v>0.66522598976421254</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.84143974548189915</v>
+        <v>0.87366074151703477</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.53193569053986955</v>
+        <v>0.81509672068914896</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>0.56948968528249999</v>
+        <v>0.77267634474107116</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="AX40" s="0">
-        <v>0.53172441693668571</v>
+        <v>0.66052038420496717</v>
       </c>
       <c r="AY40" s="0">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.93267940687482076</v>
+        <v>0.94802954527822259</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.51627396374410417</v>
+        <v>0.88632162217565302</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="BC41" s="0">
-        <v>0.69667285674512436</v>
+        <v>0.81453071117479525</v>
       </c>
       <c r="BD41" s="0">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="BG41" s="0">
-        <v>0.67813030788124495</v>
+        <v>0.78479158152399897</v>
       </c>
       <c r="BH41" s="0">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>0.74215745345751039</v>
+        <v>0.97796992183375098</v>
       </c>
       <c r="V42" s="0">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="0">
-        <v>0.57635296172183259</v>
+        <v>0.58296260786593945</v>
       </c>
       <c r="X43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.89609897615195111</v>
+        <v>0.91702492581376105</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>0.89271116244569004</v>
+        <v>0.94781949288991563</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.60849376645134667</v>
+        <v>0.74064878067758122</v>
       </c>
       <c r="AS46" s="0">
         <v>0</v>
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="0">
-        <v>0.50145139565662133</v>
+        <v>0.76026722134106661</v>
       </c>
       <c r="G48" s="0">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>0.69924861263180627</v>
+        <v>0.95839740321529743</v>
       </c>
       <c r="BB48" s="0">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>0.63305146664581669</v>
+        <v>0.68336967303751339</v>
       </c>
       <c r="BF48" s="0">
         <v>0</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="0">
-        <v>0.76560686712939208</v>
+        <v>0.91154621310926631</v>
       </c>
       <c r="O49" s="0">
         <v>0</v>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="0">
-        <v>0.95624615385261591</v>
+        <v>0.96408305405429551</v>
       </c>
       <c r="W49" s="0">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0.83792305151576274</v>
+        <v>0.98290722398247476</v>
       </c>
       <c r="R50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.65479248438486837</v>
+        <v>0.83370413866631898</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>0.8316158004419133</v>
+        <v>0.91070683473883496</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="0">
-        <v>0.83146918543307458</v>
+        <v>0.88265775758508125</v>
       </c>
       <c r="W51" s="0">
         <v>0</v>
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="BB51" s="0">
-        <v>0.81089039633001114</v>
+        <v>0.86078421507079039</v>
       </c>
       <c r="BC51" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.5989718997847282</v>
+        <v>0.7468601294049626</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>0.69630765964914643</v>
+        <v>0.71396101663171385</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="BH53" s="0">
-        <v>0.74369824769681436</v>
+        <v>0.94068914167985451</v>
       </c>
       <c r="BI53" s="0">
         <v>0</v>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>0.57551044454988687</v>
+        <v>0.96877647408799472</v>
       </c>
       <c r="N55" s="0">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="0">
-        <v>0.65321100097542018</v>
+        <v>0.94203081603756655</v>
       </c>
       <c r="V55" s="0">
         <v>0</v>
@@ -11411,13 +11411,13 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.78049858006081974</v>
+        <v>0.88510903671231866</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.5201891751326031</v>
+        <v>0.76079642726255525</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="0">
-        <v>0.5481977667193203</v>
+        <v>0.94787750345834887</v>
       </c>
       <c r="S56" s="0">
         <v>0</v>
@@ -11703,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="0">
-        <v>0.71291643412569561</v>
+        <v>0.76059711441619227</v>
       </c>
       <c r="O57" s="0">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="0">
-        <v>0.85071917743350567</v>
+        <v>0.90839155073015121</v>
       </c>
       <c r="AQ57" s="0">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="0">
-        <v>0.51881890027477984</v>
+        <v>0.7716565369164381</v>
       </c>
       <c r="F58" s="0">
         <v>0</v>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="AF59" s="0">
-        <v>0.72040264010255495</v>
+        <v>0.86524964250888936</v>
       </c>
       <c r="AG59" s="0">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>0.87752014701648728</v>
+        <v>0.97796523741885055</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0.77328689499257397</v>
+        <v>0.95203196312068084</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="AY60" s="0">
-        <v>0.60533641591044529</v>
+        <v>0.84831732153390838</v>
       </c>
       <c r="AZ60" s="0">
         <v>0</v>
@@ -12745,7 +12745,7 @@
         <v>0</v>
       </c>
       <c r="R62" s="0">
-        <v>0.62612719496488878</v>
+        <v>0.8092378187876681</v>
       </c>
       <c r="S62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0.94775297321220964</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.71496244367431716</v>
+        <v>0.72756893219003027</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>0.8686519616884697</v>
+        <v>0.96317594096113712</v>
       </c>
       <c r="AX63" s="0">
         <v>0</v>
@@ -13083,13 +13083,13 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.68126423011850501</v>
+        <v>0.94775297321220964</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.52003108984719892</v>
+        <v>0.8804591151920188</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="0">
-        <v>0.57872943540655386</v>
+        <v>0.81941184073499662</v>
       </c>
       <c r="O64" s="0">
         <v>0</v>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="0">
-        <v>0.56584740772193842</v>
+        <v>0.90897728747908091</v>
       </c>
       <c r="S64" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>0.62813908476415992</v>
+        <v>0.67200273967823221</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13548,7 +13548,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>0.87618253615045361</v>
+        <v>0.87878364683661303</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="0">
-        <v>0.63786039082364865</v>
+        <v>0.99034947583797361</v>
       </c>
       <c r="AA66" s="0">
         <v>0</v>
@@ -13611,10 +13611,10 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>0.60564699158967095</v>
+        <v>0.91244602014096943</v>
       </c>
       <c r="AG66" s="0">
-        <v>0.50273202916358972</v>
+        <v>0.86524914596669744</v>
       </c>
       <c r="AH66" s="0">
         <v>0</v>
@@ -13680,7 +13680,7 @@
         <v>0</v>
       </c>
       <c r="BC66" s="0">
-        <v>0.50930347745218507</v>
+        <v>0.94428024478112293</v>
       </c>
       <c r="BD66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.57094203184905656</v>
+        <v>0.96299015604760996</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13930,7 +13930,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.71433439333046078</v>
+        <v>0.78950625827217447</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="BI68" s="0">
-        <v>0.79762154974064026</v>
+        <v>0.96944674764345229</v>
       </c>
       <c r="BJ68" s="0">
         <v>0</v>
